--- a/BEMFSimulation/ExcelResults/PhaseVoltage2500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage2500.xlsx
@@ -408,13 +408,13 @@
         <v>6.666666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>1.835655423452209</v>
+        <v>2.56778838852792</v>
       </c>
       <c r="C2">
-        <v>164.4027597294008</v>
+        <v>166.665245039215</v>
       </c>
       <c r="D2">
-        <v>-173.1316255525155</v>
+        <v>-177.286125955378</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001333333333333333</v>
       </c>
       <c r="B3">
-        <v>10.43308813338056</v>
+        <v>10.48101231442798</v>
       </c>
       <c r="C3">
-        <v>156.8665105859293</v>
+        <v>161.0169170769851</v>
       </c>
       <c r="D3">
-        <v>-171.0883215456336</v>
+        <v>-177.3740703911026</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0002</v>
       </c>
       <c r="B4">
-        <v>31.16424589589842</v>
+        <v>31.00950663518301</v>
       </c>
       <c r="C4">
-        <v>144.0463166420514</v>
+        <v>150.7679550363027</v>
       </c>
       <c r="D4">
-        <v>-164.1196358722066</v>
+        <v>-170.1708557098942</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0002666666666666667</v>
       </c>
       <c r="B5">
-        <v>56.06945745161282</v>
+        <v>56.51353660344506</v>
       </c>
       <c r="C5">
-        <v>124.883680975044</v>
+        <v>124.0032802523071</v>
       </c>
       <c r="D5">
-        <v>-158.5965018520088</v>
+        <v>-160.1754428140271</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B6">
-        <v>70.68930731231617</v>
+        <v>73.82707852681519</v>
       </c>
       <c r="C6">
-        <v>103.8565738886023</v>
+        <v>105.8127729360231</v>
       </c>
       <c r="D6">
-        <v>-163.0176941161142</v>
+        <v>-169.3724544625024</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0004000000000000001</v>
       </c>
       <c r="B7">
-        <v>76.48713753871341</v>
+        <v>78.41911923876684</v>
       </c>
       <c r="C7">
-        <v>91.27731336271441</v>
+        <v>94.55322302634288</v>
       </c>
       <c r="D7">
-        <v>-167.1281784936944</v>
+        <v>-172.6799462459048</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0004666666666666668</v>
       </c>
       <c r="B8">
-        <v>82.91925688827584</v>
+        <v>83.00716049691111</v>
       </c>
       <c r="C8">
-        <v>86.9504447864386</v>
+        <v>89.04174150805993</v>
       </c>
       <c r="D8">
-        <v>-172.5402391761974</v>
+        <v>-174.3751521393042</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0005333333333333335</v>
       </c>
       <c r="B9">
-        <v>87.02038177357387</v>
+        <v>88.50071327050901</v>
       </c>
       <c r="C9">
-        <v>83.18977764065316</v>
+        <v>83.86837940541798</v>
       </c>
       <c r="D9">
-        <v>-173.1480344104732</v>
+        <v>-174.7158008009086</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0006000000000000002</v>
       </c>
       <c r="B10">
-        <v>91.17528319724511</v>
+        <v>94.16927349183909</v>
       </c>
       <c r="C10">
-        <v>76.58203791496787</v>
+        <v>77.79018619342125</v>
       </c>
       <c r="D10">
-        <v>-167.6999287685992</v>
+        <v>-171.4110889029919</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B11">
-        <v>103.6401094423238</v>
+        <v>107.1839307891467</v>
       </c>
       <c r="C11">
-        <v>70.90768110169954</v>
+        <v>74.30148160228397</v>
       </c>
       <c r="D11">
-        <v>-163.6497487470014</v>
+        <v>-171.9844922906144</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0007333333333333336</v>
       </c>
       <c r="B12">
-        <v>124.8050124171662</v>
+        <v>125.9961769499492</v>
       </c>
       <c r="C12">
-        <v>56.28422284317897</v>
+        <v>55.5053239081258</v>
       </c>
       <c r="D12">
-        <v>-159.1001385279928</v>
+        <v>-162.1104946405974</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0008000000000000003</v>
       </c>
       <c r="B13">
-        <v>143.7608741467018</v>
+        <v>147.5420814364369</v>
       </c>
       <c r="C13">
-        <v>31.58675237538072</v>
+        <v>30.72133389226926</v>
       </c>
       <c r="D13">
-        <v>-164.2990391091316</v>
+        <v>-167.8647460593403</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.000866666666666667</v>
       </c>
       <c r="B14">
-        <v>156.7867215258382</v>
+        <v>162.8656554169</v>
       </c>
       <c r="C14">
-        <v>10.71252806907397</v>
+        <v>10.56347918099686</v>
       </c>
       <c r="D14">
-        <v>-170.8006987010446</v>
+        <v>-177.1782505399071</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0009333333333333336</v>
       </c>
       <c r="B15">
-        <v>164.1069249390541</v>
+        <v>165.761142306624</v>
       </c>
       <c r="C15">
-        <v>2.00176309573627</v>
+        <v>2.800565853816952</v>
       </c>
       <c r="D15">
-        <v>-172.4355550457227</v>
+        <v>-176.0030786742951</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.001</v>
       </c>
       <c r="B16">
-        <v>172.6522616427675</v>
+        <v>174.8457070872889</v>
       </c>
       <c r="C16">
-        <v>-0.005363339330155537</v>
+        <v>0.04851226323397684</v>
       </c>
       <c r="D16">
-        <v>-172.3872213743273</v>
+        <v>-175.442247414577</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001066666666666667</v>
       </c>
       <c r="B17">
-        <v>172.6986154480117</v>
+        <v>176.334955192038</v>
       </c>
       <c r="C17">
-        <v>-1.859542311288681</v>
+        <v>-2.461427772014815</v>
       </c>
       <c r="D17">
-        <v>-164.4764912043846</v>
+        <v>-166.6962974840709</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001133333333333334</v>
       </c>
       <c r="B18">
-        <v>170.7000761181884</v>
+        <v>177.6432458671541</v>
       </c>
       <c r="C18">
-        <v>-10.31584801778562</v>
+        <v>-10.21627261875609</v>
       </c>
       <c r="D18">
-        <v>-156.8418817421145</v>
+        <v>-161.388604918225</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0012</v>
       </c>
       <c r="B19">
-        <v>164.5527052820676</v>
+        <v>171.141771082903</v>
       </c>
       <c r="C19">
-        <v>-31.02678823058327</v>
+        <v>-30.84899737816997</v>
       </c>
       <c r="D19">
-        <v>-144.3115712027468</v>
+        <v>-150.6996030836989</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001266666666666667</v>
       </c>
       <c r="B20">
-        <v>159.178684092519</v>
+        <v>161.4447304740719</v>
       </c>
       <c r="C20">
-        <v>-56.09870547727547</v>
+        <v>-55.95738906079701</v>
       </c>
       <c r="D20">
-        <v>-124.9767472652631</v>
+        <v>-124.1560992293559</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B21">
-        <v>163.4655171425321</v>
+        <v>170.3684963261163</v>
       </c>
       <c r="C21">
-        <v>-70.80805678701923</v>
+        <v>-73.70113954391597</v>
       </c>
       <c r="D21">
-        <v>-103.8679038599626</v>
+        <v>-106.2991943181053</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0014</v>
       </c>
       <c r="B22">
-        <v>167.4577452075086</v>
+        <v>172.6079067604454</v>
       </c>
       <c r="C22">
-        <v>-76.46960134029587</v>
+        <v>-78.52630591367108</v>
       </c>
       <c r="D22">
-        <v>-91.43301086631222</v>
+        <v>-94.97886117989898</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001466666666666667</v>
       </c>
       <c r="B23">
-        <v>172.6109697186158</v>
+        <v>174.3802305791753</v>
       </c>
       <c r="C23">
-        <v>-82.91422424372475</v>
+        <v>-83.50188526533194</v>
       </c>
       <c r="D23">
-        <v>-87.0673202516145</v>
+        <v>-88.99944036534075</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001533333333333334</v>
       </c>
       <c r="B24">
-        <v>172.9614138990721</v>
+        <v>175.4537587881168</v>
       </c>
       <c r="C24">
-        <v>-87.03686880878053</v>
+        <v>-88.99979108397508</v>
       </c>
       <c r="D24">
-        <v>-83.13571379355233</v>
+        <v>-83.69273761488493</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001600000000000001</v>
       </c>
       <c r="B25">
-        <v>167.9166254495711</v>
+        <v>172.0483630590133</v>
       </c>
       <c r="C25">
-        <v>-91.30468834684559</v>
+        <v>-94.15872210082783</v>
       </c>
       <c r="D25">
-        <v>-76.50560505661041</v>
+        <v>-77.84484787532604</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B26">
-        <v>164.0884623936675</v>
+        <v>171.8054433478018</v>
       </c>
       <c r="C26">
-        <v>-103.738366263546</v>
+        <v>-106.6423856240152</v>
       </c>
       <c r="D26">
-        <v>-70.94866598074886</v>
+        <v>-74.5386795463033</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001733333333333334</v>
       </c>
       <c r="B27">
-        <v>159.6788419361181</v>
+        <v>161.3005494043611</v>
       </c>
       <c r="C27">
-        <v>-124.854036854538</v>
+        <v>-125.588419174575</v>
       </c>
       <c r="D27">
-        <v>-56.35523076235354</v>
+        <v>-56.21083172702087</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001800000000000001</v>
       </c>
       <c r="B28">
-        <v>165.0721984356209</v>
+        <v>167.9474109192425</v>
       </c>
       <c r="C28">
-        <v>-144.0690162673199</v>
+        <v>-147.9439298458861</v>
       </c>
       <c r="D28">
-        <v>-31.53840975552893</v>
+        <v>-30.920082855505</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001866666666666667</v>
       </c>
       <c r="B29">
-        <v>171.145442624919</v>
+        <v>178.1854835536626</v>
       </c>
       <c r="C29">
-        <v>-157.0443398027527</v>
+        <v>-163.2320862711409</v>
       </c>
       <c r="D29">
-        <v>-10.59768315956458</v>
+        <v>-10.30587876746994</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001933333333333334</v>
       </c>
       <c r="B30">
-        <v>172.3456432886273</v>
+        <v>176.9432128508251</v>
       </c>
       <c r="C30">
-        <v>-164.1948282905288</v>
+        <v>-165.994750353745</v>
       </c>
       <c r="D30">
-        <v>-1.895689497945913</v>
+        <v>-2.551067655150868</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.002</v>
       </c>
       <c r="B31">
-        <v>172.2324972519613</v>
+        <v>174.8655994354</v>
       </c>
       <c r="C31">
-        <v>-172.5363791448609</v>
+        <v>-174.686411540506</v>
       </c>
       <c r="D31">
-        <v>0.06209287305991573</v>
+        <v>0.05119680035296781</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.002066666666666667</v>
       </c>
       <c r="B32">
-        <v>164.2352075698786</v>
+        <v>164.941871664126</v>
       </c>
       <c r="C32">
-        <v>-172.683343913067</v>
+        <v>-175.9636547063201</v>
       </c>
       <c r="D32">
-        <v>1.880232842923352</v>
+        <v>2.340188599772933</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.002133333333333334</v>
       </c>
       <c r="B33">
-        <v>156.5796806711828</v>
+        <v>160.5834278278388</v>
       </c>
       <c r="C33">
-        <v>-170.7761317894124</v>
+        <v>-177.4869384614523</v>
       </c>
       <c r="D33">
-        <v>10.33837902975135</v>
+        <v>10.01857924282402</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.002200000000000001</v>
       </c>
       <c r="B34">
-        <v>144.0922923007087</v>
+        <v>151.2326932908352</v>
       </c>
       <c r="C34">
-        <v>-164.5178333946398</v>
+        <v>-170.8619578111173</v>
       </c>
       <c r="D34">
-        <v>30.96426444796907</v>
+        <v>30.83294388242404</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.002266666666666667</v>
       </c>
       <c r="B35">
-        <v>124.9206918061566</v>
+        <v>124.3715709297467</v>
       </c>
       <c r="C35">
-        <v>-159.0522121149754</v>
+        <v>-160.5772487518805</v>
       </c>
       <c r="D35">
-        <v>56.0215066029053</v>
+        <v>56.03222781244699</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B36">
-        <v>103.9367465123267</v>
+        <v>105.717950825986</v>
       </c>
       <c r="C36">
-        <v>-163.3285559155485</v>
+        <v>-169.6924320242995</v>
       </c>
       <c r="D36">
-        <v>70.73809744056413</v>
+        <v>73.61656978988988</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002400000000000001</v>
       </c>
       <c r="B37">
-        <v>91.42534491235934</v>
+        <v>94.48569217176926</v>
       </c>
       <c r="C37">
-        <v>-167.5664065616966</v>
+        <v>-172.7575627558212</v>
       </c>
       <c r="D37">
-        <v>76.52157238895715</v>
+        <v>78.60632507553886</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.002466666666666667</v>
       </c>
       <c r="B38">
-        <v>87.01578680501656</v>
+        <v>89.04017811626994</v>
       </c>
       <c r="C38">
-        <v>-172.735127376983</v>
+        <v>-174.3328640466911</v>
       </c>
       <c r="D38">
-        <v>82.96285969825345</v>
+        <v>83.34335787927201</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.002533333333333334</v>
       </c>
       <c r="B39">
-        <v>83.19631622083462</v>
+        <v>84.08131561887696</v>
       </c>
       <c r="C39">
-        <v>-173.2352194321921</v>
+        <v>-175.1109261874409</v>
       </c>
       <c r="D39">
-        <v>87.20453375858777</v>
+        <v>88.8806660879083</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.002600000000000001</v>
       </c>
       <c r="B40">
-        <v>76.49042633622108</v>
+        <v>77.96089569538401</v>
       </c>
       <c r="C40">
-        <v>-167.6153349884647</v>
+        <v>-171.7506124462979</v>
       </c>
       <c r="D40">
-        <v>91.24136538906826</v>
+        <v>94.14029922442079</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B41">
-        <v>70.93210073862501</v>
+        <v>74.61183384464589</v>
       </c>
       <c r="C41">
-        <v>-163.7327892035905</v>
+        <v>-172.5047243385775</v>
       </c>
       <c r="D41">
-        <v>103.6718067062811</v>
+        <v>107.1345124028181</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.002733333333333334</v>
       </c>
       <c r="B42">
-        <v>56.39572505080265</v>
+        <v>55.77705606417405</v>
       </c>
       <c r="C42">
-        <v>-159.3039424025569</v>
+        <v>-161.8718450255051</v>
       </c>
       <c r="D42">
-        <v>124.8362876691039</v>
+        <v>126.0616699244339</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002800000000000001</v>
       </c>
       <c r="B43">
-        <v>31.68243705339246</v>
+        <v>30.72249654228511</v>
       </c>
       <c r="C43">
-        <v>-164.4554588216154</v>
+        <v>-168.2055203117648</v>
       </c>
       <c r="D43">
-        <v>144.079262062071</v>
+        <v>148.1716397173791</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002866666666666668</v>
       </c>
       <c r="B44">
-        <v>10.74834307314684</v>
+        <v>10.28155057799379</v>
       </c>
       <c r="C44">
-        <v>-170.9345050249073</v>
+        <v>-178.110951417336</v>
       </c>
       <c r="D44">
-        <v>157.2209176479713</v>
+        <v>163.1225251006788</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002933333333333334</v>
       </c>
       <c r="B45">
-        <v>2.006815185225524</v>
+        <v>2.586970336410088</v>
       </c>
       <c r="C45">
-        <v>-172.618349170233</v>
+        <v>-176.0727434434761</v>
       </c>
       <c r="D45">
-        <v>164.6007693942742</v>
+        <v>165.068442538944</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.003000000000000001</v>
       </c>
       <c r="B46">
-        <v>0.02425744425244014</v>
+        <v>0.1693878110522323</v>
       </c>
       <c r="C46">
-        <v>-172.6524069241605</v>
+        <v>-175.8322400834029</v>
       </c>
       <c r="D46">
-        <v>173.1218488673392</v>
+        <v>175.878602016135</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.003066666666666668</v>
       </c>
       <c r="B47">
-        <v>-1.841871535927797</v>
+        <v>-2.574731841255284</v>
       </c>
       <c r="C47">
-        <v>-164.3869870810034</v>
+        <v>-166.6541903485631</v>
       </c>
       <c r="D47">
-        <v>173.1273985874618</v>
+        <v>177.286211466743</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.003133333333333334</v>
       </c>
       <c r="B48">
-        <v>-10.45293168391331</v>
+        <v>-10.50027750639886</v>
       </c>
       <c r="C48">
-        <v>-156.8580515255107</v>
+        <v>-161.0162713035131</v>
       </c>
       <c r="D48">
-        <v>171.0852271395584</v>
+        <v>177.3744432887851</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.003200000000000001</v>
       </c>
       <c r="B49">
-        <v>-31.20310967658538</v>
+        <v>-31.04808745774297</v>
       </c>
       <c r="C49">
-        <v>-144.0201664594132</v>
+        <v>-150.7288857009008</v>
       </c>
       <c r="D49">
-        <v>164.1058540876397</v>
+        <v>170.1485993586637</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.003266666666666668</v>
       </c>
       <c r="B50">
-        <v>-56.09770760264629</v>
+        <v>-56.54514359634301</v>
       </c>
       <c r="C50">
-        <v>-124.8529638960932</v>
+        <v>-123.9728759360202</v>
       </c>
       <c r="D50">
-        <v>158.5964425611606</v>
+        <v>160.1783362296288</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B51">
-        <v>-70.7033961689113</v>
+        <v>-73.84353861652517</v>
       </c>
       <c r="C51">
-        <v>-103.8313250014595</v>
+        <v>-105.7909416048688</v>
       </c>
       <c r="D51">
-        <v>163.0265829823319</v>
+        <v>169.3866609478901</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.003400000000000001</v>
       </c>
       <c r="B52">
-        <v>-76.49374889610662</v>
+        <v>-78.42016434776374</v>
       </c>
       <c r="C52">
-        <v>-91.26567360285387</v>
+        <v>-94.541278224642</v>
       </c>
       <c r="D52">
-        <v>167.1332286505713</v>
+        <v>172.6771960321582</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.003466666666666668</v>
       </c>
       <c r="B53">
-        <v>-82.92884772913358</v>
+        <v>-83.01787160096725</v>
       </c>
       <c r="C53">
-        <v>-86.94755511733126</v>
+        <v>-89.038229870924</v>
       </c>
       <c r="D53">
-        <v>172.5480707308969</v>
+        <v>174.3826424821067</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.003533333333333335</v>
       </c>
       <c r="B54">
-        <v>-87.02375861604743</v>
+        <v>-88.50608936729793</v>
       </c>
       <c r="C54">
-        <v>-83.18091040325007</v>
+        <v>-83.85748125240809</v>
       </c>
       <c r="D54">
-        <v>173.1418692686703</v>
+        <v>174.7101486917238</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.003600000000000001</v>
       </c>
       <c r="B55">
-        <v>-91.18669319474942</v>
+        <v>-94.18197301870289</v>
       </c>
       <c r="C55">
-        <v>-76.57493644629476</v>
+        <v>-77.78262994949415</v>
       </c>
       <c r="D55">
-        <v>167.6942944224891</v>
+        <v>171.4078051384667</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.003666666666666668</v>
       </c>
       <c r="B56">
-        <v>-103.6645544449201</v>
+        <v>-107.2080937274442</v>
       </c>
       <c r="C56">
-        <v>-70.89348115936173</v>
+        <v>-74.28980435048686</v>
       </c>
       <c r="D56">
-        <v>163.6402961526678</v>
+        <v>171.9797430383001</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.003733333333333335</v>
       </c>
       <c r="B57">
-        <v>-124.8363289194095</v>
+        <v>-126.0234421996957</v>
       </c>
       <c r="C57">
-        <v>-56.25639472620694</v>
+        <v>-55.47166161837502</v>
       </c>
       <c r="D57">
-        <v>159.1004239984535</v>
+        <v>162.1007456048886</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.003800000000000001</v>
       </c>
       <c r="B58">
-        <v>-143.7860821774117</v>
+        <v>-147.5742184303533</v>
       </c>
       <c r="C58">
-        <v>-31.54767127254057</v>
+        <v>-30.68456701792906</v>
       </c>
       <c r="D58">
-        <v>164.3113418169013</v>
+        <v>167.883869723034</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.003866666666666668</v>
       </c>
       <c r="B59">
-        <v>-156.7975706758073</v>
+        <v>-162.8734945666468</v>
       </c>
       <c r="C59">
-        <v>-10.69275322396382</v>
+        <v>-10.54451024250988</v>
       </c>
       <c r="D59">
-        <v>170.80566061452</v>
+        <v>177.182384675737</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.003933333333333335</v>
       </c>
       <c r="B60">
-        <v>-164.1200685223074</v>
+        <v>-165.771299894665</v>
       </c>
       <c r="C60">
-        <v>-1.995152838358966</v>
+        <v>-2.793892251963872</v>
       </c>
       <c r="D60">
-        <v>172.4365908171622</v>
+        <v>176.001597728688</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B61">
-        <v>-172.6589322416797</v>
+        <v>-174.854912438765</v>
       </c>
       <c r="C61">
-        <v>0.005980495817320408</v>
+        <v>-0.04678087963325139</v>
       </c>
       <c r="D61">
-        <v>172.3821414134401</v>
+        <v>175.4345090540459</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.004066666666666667</v>
       </c>
       <c r="B62">
-        <v>-172.6960728449782</v>
+        <v>-176.3350314893171</v>
       </c>
       <c r="C62">
-        <v>1.865851569410049</v>
+        <v>2.467600186328162</v>
       </c>
       <c r="D62">
-        <v>164.4627254368192</v>
+        <v>166.6845694509251</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.004133333333333333</v>
       </c>
       <c r="B63">
-        <v>-170.695827784404</v>
+        <v>-177.6462623300933</v>
       </c>
       <c r="C63">
-        <v>10.33545912323019</v>
+        <v>10.23570552681104</v>
       </c>
       <c r="D63">
-        <v>156.8319506090401</v>
+        <v>161.3889955758381</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.0042</v>
       </c>
       <c r="B64">
-        <v>-164.5407478854633</v>
+        <v>-171.1198378754101</v>
       </c>
       <c r="C64">
-        <v>31.06588240825506</v>
+        <v>30.8874177150649</v>
       </c>
       <c r="D64">
-        <v>144.2863548534967</v>
+        <v>150.6596482717431</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.004266666666666666</v>
       </c>
       <c r="B65">
-        <v>-159.1782374113416</v>
+        <v>-161.4474324337904</v>
       </c>
       <c r="C65">
-        <v>56.12747475323157</v>
+        <v>55.98903144565307</v>
       </c>
       <c r="D65">
-        <v>124.9454720053956</v>
+        <v>124.1258957247797</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.004333333333333332</v>
       </c>
       <c r="B66">
-        <v>-163.4737761207073</v>
+        <v>-170.3826393209456</v>
       </c>
       <c r="C66">
-        <v>70.82140580893083</v>
+        <v>73.71846305036199</v>
       </c>
       <c r="D66">
-        <v>103.8422957223213</v>
+        <v>106.278873671169</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.004399999999999999</v>
       </c>
       <c r="B67">
-        <v>-167.4633503809299</v>
+        <v>-172.6045465645858</v>
       </c>
       <c r="C67">
-        <v>76.47682213547682</v>
+        <v>78.52844767967105</v>
       </c>
       <c r="D67">
-        <v>91.42210627026192</v>
+        <v>94.9665203453881</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.004466666666666665</v>
       </c>
       <c r="B68">
-        <v>-172.6179737327223</v>
+        <v>-174.3875391057479</v>
       </c>
       <c r="C68">
-        <v>82.92353219149936</v>
+        <v>83.51181513264784</v>
       </c>
       <c r="D68">
-        <v>87.06386977052657</v>
+        <v>88.99464433227109</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.004533333333333331</v>
       </c>
       <c r="B69">
-        <v>-172.9553457728404</v>
+        <v>-175.4483820109832</v>
       </c>
       <c r="C69">
-        <v>87.04049632327431</v>
+        <v>89.0049092920342</v>
       </c>
       <c r="D69">
-        <v>83.12687123653781</v>
+        <v>83.68184925799105</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.004599999999999997</v>
       </c>
       <c r="B70">
-        <v>-167.9111781894744</v>
+        <v>-172.0447461084366</v>
       </c>
       <c r="C70">
-        <v>91.31588502792998</v>
+        <v>94.17042123509994</v>
       </c>
       <c r="D70">
-        <v>76.49808591076862</v>
+        <v>77.83775069834797</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.004666666666666664</v>
       </c>
       <c r="B71">
-        <v>-164.0794917401043</v>
+        <v>-171.8001593899446</v>
       </c>
       <c r="C71">
-        <v>103.7628474039218</v>
+        <v>106.6668372720979</v>
       </c>
       <c r="D71">
-        <v>70.93485182030207</v>
+        <v>74.52808450581493</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.00473333333333333</v>
       </c>
       <c r="B72">
-        <v>-159.6792700995507</v>
+        <v>-161.2892448460707</v>
       </c>
       <c r="C72">
-        <v>124.8855951611384</v>
+        <v>125.6156405426482</v>
       </c>
       <c r="D72">
-        <v>56.32725988941655</v>
+        <v>56.17680563938485</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.004799999999999996</v>
       </c>
       <c r="B73">
-        <v>-165.0851181911914</v>
+        <v>-167.9690799970697</v>
       </c>
       <c r="C73">
-        <v>144.0947741505787</v>
+        <v>147.9768336408598</v>
       </c>
       <c r="D73">
-        <v>31.49947539463738</v>
+        <v>30.88212450781496</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.004866666666666662</v>
       </c>
       <c r="B74">
-        <v>-171.1476628617885</v>
+        <v>-178.189858872701</v>
       </c>
       <c r="C74">
-        <v>157.0533794913098</v>
+        <v>163.2398266268389</v>
       </c>
       <c r="D74">
-        <v>10.5775049398403</v>
+        <v>10.28689903067731</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.004933333333333329</v>
       </c>
       <c r="B75">
-        <v>-172.3485302640015</v>
+        <v>-176.9402227129761</v>
       </c>
       <c r="C75">
-        <v>164.2097112915156</v>
+        <v>166.004106741713</v>
       </c>
       <c r="D75">
-        <v>1.889211685269648</v>
+        <v>2.544541481774854</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.004999999999999995</v>
       </c>
       <c r="B76">
-        <v>-172.226934690747</v>
+        <v>-174.856805981528</v>
       </c>
       <c r="C76">
-        <v>172.5425571647476</v>
+        <v>174.695843664807</v>
       </c>
       <c r="D76">
-        <v>-0.06281241347091959</v>
+        <v>-0.052803593677056</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.005066666666666661</v>
       </c>
       <c r="B77">
-        <v>-164.2197338310292</v>
+        <v>-164.9291450182529</v>
       </c>
       <c r="C77">
-        <v>172.6793952597726</v>
+        <v>175.9637742047111</v>
       </c>
       <c r="D77">
-        <v>-1.88617855959694</v>
+        <v>-2.346089181919087</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.005133333333333327</v>
       </c>
       <c r="B78">
-        <v>-156.5713824278641</v>
+        <v>-160.5847066863779</v>
       </c>
       <c r="C78">
-        <v>170.773575994692</v>
+        <v>177.4886822026119</v>
       </c>
       <c r="D78">
-        <v>-10.3581258411628</v>
+        <v>-10.03732476685983</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.005199999999999994</v>
       </c>
       <c r="B79">
-        <v>-144.0666105544859</v>
+        <v>-151.1954414205371</v>
       </c>
       <c r="C79">
-        <v>164.5052329431978</v>
+        <v>170.8410643530699</v>
       </c>
       <c r="D79">
-        <v>-31.00329871482371</v>
+        <v>-30.87197899283197</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.00526666666666666</v>
       </c>
       <c r="B80">
-        <v>-124.8900411229806</v>
+        <v>-124.3396926400221</v>
       </c>
       <c r="C80">
-        <v>159.0517986028996</v>
+        <v>160.5789626072</v>
       </c>
       <c r="D80">
-        <v>-56.05007854525237</v>
+        <v>-56.06414915403195</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.005333333333333326</v>
       </c>
       <c r="B81">
-        <v>-103.9104719669536</v>
+        <v>-105.6972639817751</v>
       </c>
       <c r="C81">
-        <v>163.3362953071136</v>
+        <v>169.7081857497956</v>
       </c>
       <c r="D81">
-        <v>-70.75140274848374</v>
+        <v>-73.63422088455494</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.005399999999999992</v>
       </c>
       <c r="B82">
-        <v>-91.41425593516743</v>
+        <v>-94.47309557902086</v>
       </c>
       <c r="C82">
-        <v>167.5719861070884</v>
+        <v>172.7534412151784</v>
       </c>
       <c r="D82">
-        <v>-76.5284561665655</v>
+        <v>-78.60769373049629</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.005466666666666659</v>
       </c>
       <c r="B83">
-        <v>-87.01211658674684</v>
+        <v>-89.03682436077787</v>
       </c>
       <c r="C83">
-        <v>172.7414751816935</v>
+        <v>174.3404242970379</v>
       </c>
       <c r="D83">
-        <v>-82.97191570729487</v>
+        <v>-83.35362016126771</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.005533333333333325</v>
       </c>
       <c r="B84">
-        <v>-83.18737900940037</v>
+        <v>-84.07040272761512</v>
       </c>
       <c r="C84">
-        <v>173.2291784551477</v>
+        <v>175.1049648530783</v>
       </c>
       <c r="D84">
-        <v>-87.20802283538859</v>
+        <v>-88.88564057970908</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.005599999999999991</v>
       </c>
       <c r="B85">
-        <v>-76.48365296207076</v>
+        <v>-77.95347247059708</v>
       </c>
       <c r="C85">
-        <v>167.6102925429007</v>
+        <v>171.7480806494543</v>
       </c>
       <c r="D85">
-        <v>-91.25301252138229</v>
+        <v>-94.15261592720519</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.005666666666666658</v>
       </c>
       <c r="B86">
-        <v>-70.91851214797647</v>
+        <v>-74.60066549251285</v>
       </c>
       <c r="C86">
-        <v>163.724671004122</v>
+        <v>172.4996567648323</v>
       </c>
       <c r="D86">
-        <v>-103.6971313418251</v>
+        <v>-107.158876519687</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.005733333333333324</v>
       </c>
       <c r="B87">
-        <v>-56.36753193968197</v>
+        <v>-55.74298017277623</v>
       </c>
       <c r="C87">
-        <v>159.3033166954084</v>
+        <v>161.8618569961689</v>
       </c>
       <c r="D87">
-        <v>-124.8673631760368</v>
+        <v>-126.089985305736</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.00579999999999999</v>
       </c>
       <c r="B88">
-        <v>-31.64391655995663</v>
+        <v>-30.68486612489082</v>
       </c>
       <c r="C88">
-        <v>164.4683925382795</v>
+        <v>168.2259773793075</v>
       </c>
       <c r="D88">
-        <v>-144.1051821604341</v>
+        <v>-148.203670730777</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.005866666666666656</v>
       </c>
       <c r="B89">
-        <v>-10.72810617826825</v>
+        <v>-10.26243039265497</v>
       </c>
       <c r="C89">
-        <v>170.9381665454242</v>
+        <v>178.1141795519961</v>
       </c>
       <c r="D89">
-        <v>-157.2307112183229</v>
+        <v>-163.1284325001439</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.005933333333333323</v>
       </c>
       <c r="B90">
-        <v>-2.000345579175472</v>
+        <v>-2.581086371940267</v>
       </c>
       <c r="C90">
-        <v>172.6205862778771</v>
+        <v>176.0709135955619</v>
       </c>
       <c r="D90">
-        <v>-164.6149556064628</v>
+        <v>-165.0799753226139</v>
       </c>
     </row>
   </sheetData>

--- a/BEMFSimulation/ExcelResults/PhaseVoltage2500.xlsx
+++ b/BEMFSimulation/ExcelResults/PhaseVoltage2500.xlsx
@@ -408,13 +408,13 @@
         <v>6.666666666666667e-05</v>
       </c>
       <c r="B2">
-        <v>2.56778838852792</v>
+        <v>1.935393737914973</v>
       </c>
       <c r="C2">
-        <v>166.665245039215</v>
+        <v>168.4205768356761</v>
       </c>
       <c r="D2">
-        <v>-177.286125955378</v>
+        <v>-177.4443002329519</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -422,13 +422,13 @@
         <v>0.0001333333333333333</v>
       </c>
       <c r="B3">
-        <v>10.48101231442798</v>
+        <v>10.7452181851507</v>
       </c>
       <c r="C3">
-        <v>161.0169170769851</v>
+        <v>160.951161359989</v>
       </c>
       <c r="D3">
-        <v>-177.3740703911026</v>
+        <v>-175.5795725713131</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -436,13 +436,13 @@
         <v>0.0002</v>
       </c>
       <c r="B4">
-        <v>31.00950663518301</v>
+        <v>31.97425604738006</v>
       </c>
       <c r="C4">
-        <v>150.7679550363027</v>
+        <v>147.832883436002</v>
       </c>
       <c r="D4">
-        <v>-170.1708557098942</v>
+        <v>-168.5642836829631</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -450,13 +450,13 @@
         <v>0.0002666666666666667</v>
       </c>
       <c r="B5">
-        <v>56.51353660344506</v>
+        <v>57.43391715355219</v>
       </c>
       <c r="C5">
-        <v>124.0032802523071</v>
+        <v>127.8824434915449</v>
       </c>
       <c r="D5">
-        <v>-160.1754428140271</v>
+        <v>-162.507873475146</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -464,13 +464,13 @@
         <v>0.0003333333333333334</v>
       </c>
       <c r="B6">
-        <v>73.82707852681519</v>
+        <v>72.52534498034397</v>
       </c>
       <c r="C6">
-        <v>105.8127729360231</v>
+        <v>106.4940122398821</v>
       </c>
       <c r="D6">
-        <v>-169.3724544625024</v>
+        <v>-167.2311484831367</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -478,13 +478,13 @@
         <v>0.0004000000000000001</v>
       </c>
       <c r="B7">
-        <v>78.41911923876684</v>
+        <v>78.29910024549184</v>
       </c>
       <c r="C7">
-        <v>94.55322302634288</v>
+        <v>93.48823709294795</v>
       </c>
       <c r="D7">
-        <v>-172.6799462459048</v>
+        <v>-171.0973740703919</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -492,13 +492,13 @@
         <v>0.0004666666666666668</v>
       </c>
       <c r="B8">
-        <v>83.00716049691111</v>
+        <v>85.20195134564014</v>
       </c>
       <c r="C8">
-        <v>89.04174150805993</v>
+        <v>89.40839252486489</v>
       </c>
       <c r="D8">
-        <v>-174.3751521393042</v>
+        <v>-177.4344921097993</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0.0005333333333333335</v>
       </c>
       <c r="B9">
-        <v>88.50071327050901</v>
+        <v>89.26009943403187</v>
       </c>
       <c r="C9">
-        <v>83.86837940541798</v>
+        <v>85.2904784356373</v>
       </c>
       <c r="D9">
-        <v>-174.7158008009086</v>
+        <v>-177.6473706953819</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -520,13 +520,13 @@
         <v>0.0006000000000000002</v>
       </c>
       <c r="B10">
-        <v>94.16927349183909</v>
+        <v>93.56566162747119</v>
       </c>
       <c r="C10">
-        <v>77.79018619342125</v>
+        <v>78.44250733462684</v>
       </c>
       <c r="D10">
-        <v>-171.4110889029919</v>
+        <v>-171.9117644360047</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -534,13 +534,13 @@
         <v>0.0006666666666666669</v>
       </c>
       <c r="B11">
-        <v>107.1839307891467</v>
+        <v>106.426325220696</v>
       </c>
       <c r="C11">
-        <v>74.30148160228397</v>
+        <v>72.79536107396395</v>
       </c>
       <c r="D11">
-        <v>-171.9844922906144</v>
+        <v>-168.0322375238383</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -548,13 +548,13 @@
         <v>0.0007333333333333336</v>
       </c>
       <c r="B12">
-        <v>125.9961769499492</v>
+        <v>127.9694738090659</v>
       </c>
       <c r="C12">
-        <v>55.5053239081258</v>
+        <v>57.58792046780225</v>
       </c>
       <c r="D12">
-        <v>-162.1104946405974</v>
+        <v>-163.0962164888395</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -562,13 +562,13 @@
         <v>0.0008000000000000003</v>
       </c>
       <c r="B13">
-        <v>147.5420814364369</v>
+        <v>147.3072471869379</v>
       </c>
       <c r="C13">
-        <v>30.72133389226926</v>
+        <v>32.33169233882067</v>
       </c>
       <c r="D13">
-        <v>-167.8647460593403</v>
+        <v>-168.5211191942699</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -576,13 +576,13 @@
         <v>0.000866666666666667</v>
       </c>
       <c r="B14">
-        <v>162.8656554169</v>
+        <v>160.766659267615</v>
       </c>
       <c r="C14">
-        <v>10.56347918099686</v>
+        <v>10.97730852985118</v>
       </c>
       <c r="D14">
-        <v>-177.1782505399071</v>
+        <v>-175.1217730751887</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -590,13 +590,13 @@
         <v>0.0009333333333333336</v>
       </c>
       <c r="B15">
-        <v>165.761142306624</v>
+        <v>168.225870433716</v>
       </c>
       <c r="C15">
-        <v>2.800565853816952</v>
+        <v>2.03421392780713</v>
       </c>
       <c r="D15">
-        <v>-176.0030786742951</v>
+        <v>-176.720220521584</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -604,13 +604,13 @@
         <v>0.001</v>
       </c>
       <c r="B16">
-        <v>174.8457070872889</v>
+        <v>177.335167360871</v>
       </c>
       <c r="C16">
-        <v>0.04851226323397684</v>
+        <v>-0.03178062673130089</v>
       </c>
       <c r="D16">
-        <v>-175.442247414577</v>
+        <v>-177.195533381112</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -618,13 +618,13 @@
         <v>0.001066666666666667</v>
       </c>
       <c r="B17">
-        <v>176.334955192038</v>
+        <v>176.920380301563</v>
       </c>
       <c r="C17">
-        <v>-2.461427772014815</v>
+        <v>-1.920822690643781</v>
       </c>
       <c r="D17">
-        <v>-166.6962974840709</v>
+        <v>-168.338473623425</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -632,13 +632,13 @@
         <v>0.001133333333333334</v>
       </c>
       <c r="B18">
-        <v>177.6432458671541</v>
+        <v>175.1833228979656</v>
       </c>
       <c r="C18">
-        <v>-10.21627261875609</v>
+        <v>-10.62297923977405</v>
       </c>
       <c r="D18">
-        <v>-161.388604918225</v>
+        <v>-160.9323489905841</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -646,13 +646,13 @@
         <v>0.0012</v>
       </c>
       <c r="B19">
-        <v>171.141771082903</v>
+        <v>169.0284010050853</v>
       </c>
       <c r="C19">
-        <v>-30.84899737816997</v>
+        <v>-31.82731838242518</v>
       </c>
       <c r="D19">
-        <v>-150.6996030836989</v>
+        <v>-148.1437165887389</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -660,13 +660,13 @@
         <v>0.001266666666666667</v>
       </c>
       <c r="B20">
-        <v>161.4447304740719</v>
+        <v>163.1756334849264</v>
       </c>
       <c r="C20">
-        <v>-55.95738906079701</v>
+        <v>-57.48678882660785</v>
       </c>
       <c r="D20">
-        <v>-124.1560992293559</v>
+        <v>-127.9980859919601</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -674,13 +674,13 @@
         <v>0.001333333333333334</v>
       </c>
       <c r="B21">
-        <v>170.3684963261163</v>
+        <v>167.6692879533465</v>
       </c>
       <c r="C21">
-        <v>-73.70113954391597</v>
+        <v>-72.61779966552702</v>
       </c>
       <c r="D21">
-        <v>-106.2991943181053</v>
+        <v>-106.5028669610727</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -688,13 +688,13 @@
         <v>0.0014</v>
       </c>
       <c r="B22">
-        <v>172.6079067604454</v>
+        <v>171.4399729301757</v>
       </c>
       <c r="C22">
-        <v>-78.52630591367108</v>
+        <v>-78.24961216279583</v>
       </c>
       <c r="D22">
-        <v>-94.97886117989898</v>
+        <v>-93.60844968604523</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -702,13 +702,13 @@
         <v>0.001466666666666667</v>
       </c>
       <c r="B23">
-        <v>174.3802305791753</v>
+        <v>177.4792512668444</v>
       </c>
       <c r="C23">
-        <v>-83.50188526533194</v>
+        <v>-85.23520498813809</v>
       </c>
       <c r="D23">
-        <v>-88.99944036534075</v>
+        <v>-89.484355718656</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -716,13 +716,13 @@
         <v>0.001533333333333334</v>
       </c>
       <c r="B24">
-        <v>175.4537587881168</v>
+        <v>177.4296524714861</v>
       </c>
       <c r="C24">
-        <v>-88.99979108397508</v>
+        <v>-89.30306739927119</v>
       </c>
       <c r="D24">
-        <v>-83.69273761488493</v>
+        <v>-85.18555450293501</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -730,13 +730,13 @@
         <v>0.001600000000000001</v>
       </c>
       <c r="B25">
-        <v>172.0483630590133</v>
+        <v>172.1118584632699</v>
       </c>
       <c r="C25">
-        <v>-94.15872210082783</v>
+        <v>-93.69574182315175</v>
       </c>
       <c r="D25">
-        <v>-77.84484787532604</v>
+        <v>-78.33866216215672</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -744,13 +744,13 @@
         <v>0.001666666666666667</v>
       </c>
       <c r="B26">
-        <v>171.8054433478018</v>
+        <v>168.4501319920704</v>
       </c>
       <c r="C26">
-        <v>-106.6423856240152</v>
+        <v>-106.4954692243603</v>
       </c>
       <c r="D26">
-        <v>-74.5386795463033</v>
+        <v>-72.823248013772</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -758,13 +758,13 @@
         <v>0.001733333333333334</v>
       </c>
       <c r="B27">
-        <v>161.3005494043611</v>
+        <v>163.7176929543887</v>
       </c>
       <c r="C27">
-        <v>-125.588419174575</v>
+        <v>-128.0101770808128</v>
       </c>
       <c r="D27">
-        <v>-56.21083172702087</v>
+        <v>-57.66907981818205</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -772,13 +772,13 @@
         <v>0.001800000000000001</v>
       </c>
       <c r="B28">
-        <v>167.9474109192425</v>
+        <v>169.2701037366322</v>
       </c>
       <c r="C28">
-        <v>-147.9439298458861</v>
+        <v>-147.6247550485171</v>
       </c>
       <c r="D28">
-        <v>-30.920082855505</v>
+        <v>-32.27241327298027</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -786,13 +786,13 @@
         <v>0.001866666666666667</v>
       </c>
       <c r="B29">
-        <v>178.1854835536626</v>
+        <v>175.4259599514309</v>
       </c>
       <c r="C29">
-        <v>-163.2320862711409</v>
+        <v>-161.0206884448099</v>
       </c>
       <c r="D29">
-        <v>-10.30587876746994</v>
+        <v>-10.84527604827377</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -800,13 +800,13 @@
         <v>0.001933333333333334</v>
       </c>
       <c r="B30">
-        <v>176.9432128508251</v>
+        <v>176.738532279988</v>
       </c>
       <c r="C30">
-        <v>-165.994750353745</v>
+        <v>-168.3845178853029</v>
       </c>
       <c r="D30">
-        <v>-2.551067655150868</v>
+        <v>-1.95553998701796</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -814,13 +814,13 @@
         <v>0.002</v>
       </c>
       <c r="B31">
-        <v>174.8655994354</v>
+        <v>177.055542058744</v>
       </c>
       <c r="C31">
-        <v>-174.686411540506</v>
+        <v>-177.2314462619891</v>
       </c>
       <c r="D31">
-        <v>0.05119680035296781</v>
+        <v>0.06680621037688517</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -828,13 +828,13 @@
         <v>0.002066666666666667</v>
       </c>
       <c r="B32">
-        <v>164.941871664126</v>
+        <v>168.0702015391099</v>
       </c>
       <c r="C32">
-        <v>-175.9636547063201</v>
+        <v>-176.859172965224</v>
       </c>
       <c r="D32">
-        <v>2.340188599772933</v>
+        <v>1.956949704786867</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -842,13 +842,13 @@
         <v>0.002133333333333334</v>
       </c>
       <c r="B33">
-        <v>160.5834278278388</v>
+        <v>160.5822726998822</v>
       </c>
       <c r="C33">
-        <v>-177.4869384614523</v>
+        <v>-175.2007675180951</v>
       </c>
       <c r="D33">
-        <v>10.01857924282402</v>
+        <v>10.67484051184321</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -856,13 +856,13 @@
         <v>0.002200000000000001</v>
       </c>
       <c r="B34">
-        <v>151.2326932908352</v>
+        <v>147.8791136311077</v>
       </c>
       <c r="C34">
-        <v>-170.8619578111173</v>
+        <v>-168.9467257287091</v>
       </c>
       <c r="D34">
-        <v>30.83294388242404</v>
+        <v>31.77091144712096</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -870,13 +870,13 @@
         <v>0.002266666666666667</v>
       </c>
       <c r="B35">
-        <v>124.3715709297467</v>
+        <v>127.9738803060683</v>
       </c>
       <c r="C35">
-        <v>-160.5772487518805</v>
+        <v>-163.0256969661861</v>
       </c>
       <c r="D35">
-        <v>56.03222781244699</v>
+        <v>57.37439021065403</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -884,13 +884,13 @@
         <v>0.002333333333333334</v>
       </c>
       <c r="B36">
-        <v>105.717950825986</v>
+        <v>106.5598007403898</v>
       </c>
       <c r="C36">
-        <v>-169.6924320242995</v>
+        <v>-167.4714065770673</v>
       </c>
       <c r="D36">
-        <v>73.61656978988988</v>
+        <v>72.54744313727086</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -898,13 +898,13 @@
         <v>0.002400000000000001</v>
       </c>
       <c r="B37">
-        <v>94.48569217176926</v>
+        <v>93.57849244474789</v>
       </c>
       <c r="C37">
-        <v>-172.7575627558212</v>
+        <v>-171.5116788472242</v>
       </c>
       <c r="D37">
-        <v>78.60632507553886</v>
+        <v>78.31195763543796</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -912,13 +912,13 @@
         <v>0.002466666666666667</v>
       </c>
       <c r="B38">
-        <v>89.04017811626994</v>
+        <v>89.40785602990221</v>
       </c>
       <c r="C38">
-        <v>-174.3328640466911</v>
+        <v>-177.5495226175496</v>
       </c>
       <c r="D38">
-        <v>83.34335787927201</v>
+        <v>85.26338178455016</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -926,13 +926,13 @@
         <v>0.002533333333333334</v>
       </c>
       <c r="B39">
-        <v>84.08131561887696</v>
+        <v>85.3109275615098</v>
       </c>
       <c r="C39">
-        <v>-175.1109261874409</v>
+        <v>-177.6842151170999</v>
       </c>
       <c r="D39">
-        <v>88.8806660879083</v>
+        <v>89.41347040432694</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -940,13 +940,13 @@
         <v>0.002600000000000001</v>
       </c>
       <c r="B40">
-        <v>77.96089569538401</v>
+        <v>78.34986393622825</v>
       </c>
       <c r="C40">
-        <v>-171.7506124462979</v>
+        <v>-171.712316368759</v>
       </c>
       <c r="D40">
-        <v>94.14029922442079</v>
+        <v>93.57043308225906</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -954,13 +954,13 @@
         <v>0.002666666666666667</v>
       </c>
       <c r="B41">
-        <v>74.61183384464589</v>
+        <v>72.7972025693708</v>
       </c>
       <c r="C41">
-        <v>-172.5047243385775</v>
+        <v>-168.0783972224025</v>
       </c>
       <c r="D41">
-        <v>107.1345124028181</v>
+        <v>106.428689253953</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -968,13 +968,13 @@
         <v>0.002733333333333334</v>
       </c>
       <c r="B42">
-        <v>55.77705606417405</v>
+        <v>57.66551482337505</v>
       </c>
       <c r="C42">
-        <v>-161.8718450255051</v>
+        <v>-163.3530847247513</v>
       </c>
       <c r="D42">
-        <v>126.0616699244339</v>
+        <v>128.054799953831</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -982,13 +982,13 @@
         <v>0.002800000000000001</v>
       </c>
       <c r="B43">
-        <v>30.72249654228511</v>
+        <v>32.42982398295214</v>
       </c>
       <c r="C43">
-        <v>-168.2055203117648</v>
+        <v>-168.6690253735521</v>
       </c>
       <c r="D43">
-        <v>148.1716397173791</v>
+        <v>147.647829740374</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -996,13 +996,13 @@
         <v>0.002866666666666668</v>
       </c>
       <c r="B44">
-        <v>10.28155057799379</v>
+        <v>11.01836388229284</v>
       </c>
       <c r="C44">
-        <v>-178.110951417336</v>
+        <v>-175.1547755508228</v>
       </c>
       <c r="D44">
-        <v>163.1225251006788</v>
+        <v>161.139116943536</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1010,13 +1010,13 @@
         <v>0.002933333333333334</v>
       </c>
       <c r="B45">
-        <v>2.586970336410088</v>
+        <v>2.047292072141979</v>
       </c>
       <c r="C45">
-        <v>-176.0727434434761</v>
+        <v>-176.904785751817</v>
       </c>
       <c r="D45">
-        <v>165.068442538944</v>
+        <v>168.734878457581</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1024,13 +1024,13 @@
         <v>0.003000000000000001</v>
       </c>
       <c r="B46">
-        <v>0.1693878110522323</v>
+        <v>-0.009327421757882037</v>
       </c>
       <c r="C46">
-        <v>-175.8322400834029</v>
+        <v>-177.515384477788</v>
       </c>
       <c r="D46">
-        <v>175.878602016135</v>
+        <v>177.8595941780219</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1038,13 +1038,13 @@
         <v>0.003066666666666668</v>
       </c>
       <c r="B47">
-        <v>-2.574731841255284</v>
+        <v>-1.941911565203971</v>
       </c>
       <c r="C47">
-        <v>-166.6541903485631</v>
+        <v>-168.4056024105849</v>
       </c>
       <c r="D47">
-        <v>177.286211466743</v>
+        <v>177.441439158009</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1052,13 +1052,13 @@
         <v>0.003133333333333334</v>
       </c>
       <c r="B48">
-        <v>-10.50027750639886</v>
+        <v>-10.76524724647095</v>
       </c>
       <c r="C48">
-        <v>-161.0162713035131</v>
+        <v>-160.9415371005132</v>
       </c>
       <c r="D48">
-        <v>177.3744432887851</v>
+        <v>175.5751535505889</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1066,13 +1066,13 @@
         <v>0.003200000000000001</v>
       </c>
       <c r="B49">
-        <v>-31.04808745774297</v>
+        <v>-32.01409675448221</v>
       </c>
       <c r="C49">
-        <v>-150.7288857009008</v>
+        <v>-147.8058804397917</v>
       </c>
       <c r="D49">
-        <v>170.1485993586637</v>
+        <v>168.5505563546164</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1080,13 +1080,13 @@
         <v>0.003266666666666668</v>
       </c>
       <c r="B50">
-        <v>-56.54514359634301</v>
+        <v>-57.46305983721604</v>
       </c>
       <c r="C50">
-        <v>-123.9728759360202</v>
+        <v>-127.851537850783</v>
       </c>
       <c r="D50">
-        <v>160.1783362296288</v>
+        <v>162.5079350748321</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1094,13 +1094,13 @@
         <v>0.003333333333333334</v>
       </c>
       <c r="B51">
-        <v>-73.84353861652517</v>
+        <v>-72.53916232449892</v>
       </c>
       <c r="C51">
-        <v>-105.7909416048688</v>
+        <v>-106.4671031855792</v>
       </c>
       <c r="D51">
-        <v>169.3866609478901</v>
+        <v>167.2392307853165</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1108,13 +1108,13 @@
         <v>0.003400000000000001</v>
       </c>
       <c r="B52">
-        <v>-78.42016434776374</v>
+        <v>-78.30706715215192</v>
       </c>
       <c r="C52">
-        <v>-94.541278224642</v>
+        <v>-93.47788070048387</v>
       </c>
       <c r="D52">
-        <v>172.6771960321582</v>
+        <v>171.1041308153282</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1122,13 +1122,13 @@
         <v>0.003466666666666668</v>
       </c>
       <c r="B53">
-        <v>-83.01787160096725</v>
+        <v>-85.21140352964613</v>
       </c>
       <c r="C53">
-        <v>-89.038229870924</v>
+        <v>-89.40523054536618</v>
       </c>
       <c r="D53">
-        <v>174.3826424821067</v>
+        <v>177.4430029686722</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1136,13 +1136,13 @@
         <v>0.003533333333333335</v>
       </c>
       <c r="B54">
-        <v>-88.50608936729793</v>
+        <v>-89.26313455915498</v>
       </c>
       <c r="C54">
-        <v>-83.85748125240809</v>
+        <v>-85.28037377168694</v>
       </c>
       <c r="D54">
-        <v>174.7101486917238</v>
+        <v>177.639325337097</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1150,13 +1150,13 @@
         <v>0.003600000000000001</v>
       </c>
       <c r="B55">
-        <v>-94.18197301870289</v>
+        <v>-93.57742901820176</v>
       </c>
       <c r="C55">
-        <v>-77.78262994949415</v>
+        <v>-78.43541741824576</v>
       </c>
       <c r="D55">
-        <v>171.4078051384667</v>
+        <v>171.9062577929737</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1164,13 +1164,13 @@
         <v>0.003666666666666668</v>
       </c>
       <c r="B56">
-        <v>-107.2080937274442</v>
+        <v>-106.451538690135</v>
       </c>
       <c r="C56">
-        <v>-74.28980435048686</v>
+        <v>-72.78081005385116</v>
       </c>
       <c r="D56">
-        <v>171.9797430383001</v>
+        <v>168.0230374971161</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1178,13 +1178,13 @@
         <v>0.003733333333333335</v>
       </c>
       <c r="B57">
-        <v>-126.0234421996957</v>
+        <v>-128.0014003940323</v>
       </c>
       <c r="C57">
-        <v>-55.47166161837502</v>
+        <v>-57.55916805341293</v>
       </c>
       <c r="D57">
-        <v>162.1007456048886</v>
+        <v>163.096025448579</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1192,13 +1192,13 @@
         <v>0.003800000000000001</v>
       </c>
       <c r="B58">
-        <v>-147.5742184303533</v>
+        <v>-147.3331704699439</v>
       </c>
       <c r="C58">
-        <v>-30.68456701792906</v>
+        <v>-32.29211744761318</v>
       </c>
       <c r="D58">
-        <v>167.883869723034</v>
+        <v>168.5341672390032</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1206,13 +1206,13 @@
         <v>0.003866666666666668</v>
       </c>
       <c r="B59">
-        <v>-162.8734945666468</v>
+        <v>-160.777076786375</v>
       </c>
       <c r="C59">
-        <v>-10.54451024250988</v>
+        <v>-10.9568429674578</v>
       </c>
       <c r="D59">
-        <v>177.182384675737</v>
+        <v>175.1258464279539</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1220,13 +1220,13 @@
         <v>0.003933333333333335</v>
       </c>
       <c r="B60">
-        <v>-165.771299894665</v>
+        <v>-168.241490191722</v>
       </c>
       <c r="C60">
-        <v>-2.793892251963872</v>
+        <v>-2.027413541520057</v>
       </c>
       <c r="D60">
-        <v>176.001597728688</v>
+        <v>176.7234066575949</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1234,13 +1234,13 @@
         <v>0.004000000000000001</v>
       </c>
       <c r="B61">
-        <v>-174.854912438765</v>
+        <v>-177.341225103699</v>
       </c>
       <c r="C61">
-        <v>-0.04678087963325139</v>
+        <v>0.03239185111907072</v>
       </c>
       <c r="D61">
-        <v>175.4345090540459</v>
+        <v>177.189784416335</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1248,13 +1248,13 @@
         <v>0.004066666666666667</v>
       </c>
       <c r="B62">
-        <v>-176.3350314893171</v>
+        <v>-176.9161789929931</v>
       </c>
       <c r="C62">
-        <v>2.467600186328162</v>
+        <v>1.927017053755808</v>
       </c>
       <c r="D62">
-        <v>166.6845694509251</v>
+        <v>168.3226152456221</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1262,13 +1262,13 @@
         <v>0.004133333333333333</v>
       </c>
       <c r="B63">
-        <v>-177.6462623300933</v>
+        <v>-175.1802219628821</v>
       </c>
       <c r="C63">
-        <v>10.23570552681104</v>
+        <v>10.64322757260705</v>
       </c>
       <c r="D63">
-        <v>161.3889955758381</v>
+        <v>160.9233782714948</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1276,13 +1276,13 @@
         <v>0.0042</v>
       </c>
       <c r="B64">
-        <v>-171.1198378754101</v>
+        <v>-169.015672724723</v>
       </c>
       <c r="C64">
-        <v>30.8874177150649</v>
+        <v>31.86731322281193</v>
       </c>
       <c r="D64">
-        <v>150.6596482717431</v>
+        <v>148.1168417832291</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1290,13 +1290,13 @@
         <v>0.004266666666666666</v>
       </c>
       <c r="B65">
-        <v>-161.4474324337904</v>
+        <v>-163.1750786712553</v>
       </c>
       <c r="C65">
-        <v>55.98903144565307</v>
+        <v>57.51604639823716</v>
       </c>
       <c r="D65">
-        <v>124.1258957247797</v>
+        <v>127.966419785578</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1304,13 +1304,13 @@
         <v>0.004333333333333332</v>
       </c>
       <c r="B66">
-        <v>-170.3826393209456</v>
+        <v>-167.679024002639</v>
       </c>
       <c r="C66">
-        <v>73.71846305036199</v>
+        <v>72.63242253089177</v>
       </c>
       <c r="D66">
-        <v>106.278873671169</v>
+        <v>106.4776193137239</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1318,13 +1318,13 @@
         <v>0.004399999999999999</v>
       </c>
       <c r="B67">
-        <v>-172.6045465645858</v>
+        <v>-171.4440772766958</v>
       </c>
       <c r="C67">
-        <v>78.52844767967105</v>
+        <v>78.2559625942182</v>
       </c>
       <c r="D67">
-        <v>94.9665203453881</v>
+        <v>93.59605954985909</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1332,13 +1332,13 @@
         <v>0.004466666666666665</v>
       </c>
       <c r="B68">
-        <v>-174.3875391057479</v>
+        <v>-177.4876061871019</v>
       </c>
       <c r="C68">
-        <v>83.51181513264784</v>
+        <v>85.2451952869971</v>
       </c>
       <c r="D68">
-        <v>88.99464433227109</v>
+        <v>89.4816503326179</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1346,13 +1346,13 @@
         <v>0.004533333333333331</v>
       </c>
       <c r="B69">
-        <v>-175.4483820109832</v>
+        <v>-177.4218080139186</v>
       </c>
       <c r="C69">
-        <v>89.0049092920342</v>
+        <v>89.30622266288199</v>
       </c>
       <c r="D69">
-        <v>83.68184925799105</v>
+        <v>85.175160953423</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1360,13 +1360,13 @@
         <v>0.004599999999999997</v>
       </c>
       <c r="B70">
-        <v>-172.0447461084366</v>
+        <v>-172.1074099779343</v>
       </c>
       <c r="C70">
-        <v>94.17042123509994</v>
+        <v>93.7078704582657</v>
       </c>
       <c r="D70">
-        <v>77.83775069834797</v>
+        <v>78.3320812568971</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1374,13 +1374,13 @@
         <v>0.004666666666666664</v>
       </c>
       <c r="B71">
-        <v>-171.8001593899446</v>
+        <v>-168.4417583522362</v>
       </c>
       <c r="C71">
-        <v>106.6668372720979</v>
+        <v>106.5211644684941</v>
       </c>
       <c r="D71">
-        <v>74.52808450581493</v>
+        <v>72.80932899238896</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1388,13 +1388,13 @@
         <v>0.00473333333333333</v>
       </c>
       <c r="B72">
-        <v>-161.2892448460707</v>
+        <v>-163.7173000135364</v>
       </c>
       <c r="C72">
-        <v>125.6156405426482</v>
+        <v>128.0417358242861</v>
       </c>
       <c r="D72">
-        <v>56.17680563938485</v>
+        <v>57.63993736670123</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1402,13 +1402,13 @@
         <v>0.004799999999999996</v>
       </c>
       <c r="B73">
-        <v>-167.9690799970697</v>
+        <v>-169.283107321934</v>
       </c>
       <c r="C73">
-        <v>147.9768336408598</v>
+        <v>147.651107499204</v>
       </c>
       <c r="D73">
-        <v>30.88212450781496</v>
+        <v>32.23243765172468</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1416,13 +1416,13 @@
         <v>0.004866666666666662</v>
       </c>
       <c r="B74">
-        <v>-178.189858872701</v>
+        <v>-175.4294086186273</v>
       </c>
       <c r="C74">
-        <v>163.2398266268389</v>
+        <v>161.03105790111</v>
       </c>
       <c r="D74">
-        <v>10.28689903067731</v>
+        <v>10.82504657015718</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1430,13 +1430,13 @@
         <v>0.004933333333333329</v>
       </c>
       <c r="B75">
-        <v>-176.9402227129761</v>
+        <v>-176.740690988624</v>
       </c>
       <c r="C75">
-        <v>166.004106741713</v>
+        <v>168.3988652847319</v>
       </c>
       <c r="D75">
-        <v>2.544541481774854</v>
+        <v>1.948703728268941</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1444,13 +1444,13 @@
         <v>0.004999999999999995</v>
       </c>
       <c r="B76">
-        <v>-174.856805981528</v>
+        <v>-177.0501580126231</v>
       </c>
       <c r="C76">
-        <v>174.695843664807</v>
+        <v>177.2380343118381</v>
       </c>
       <c r="D76">
-        <v>-0.052803593677056</v>
+        <v>-0.06754348014295641</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1458,13 +1458,13 @@
         <v>0.005066666666666661</v>
       </c>
       <c r="B77">
-        <v>-164.9291450182529</v>
+        <v>-168.0551723486629</v>
       </c>
       <c r="C77">
-        <v>175.9637742047111</v>
+        <v>176.8562158869369</v>
       </c>
       <c r="D77">
-        <v>-2.346089181919087</v>
+        <v>-1.963558023440962</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1472,13 +1472,13 @@
         <v>0.005133333333333327</v>
       </c>
       <c r="B78">
-        <v>-160.5847066863779</v>
+        <v>-160.572874521671</v>
       </c>
       <c r="C78">
-        <v>177.4886822026119</v>
+        <v>175.1971991314794</v>
       </c>
       <c r="D78">
-        <v>-10.03732476685983</v>
+        <v>-10.69474987654591</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1486,13 +1486,13 @@
         <v>0.005199999999999994</v>
       </c>
       <c r="B79">
-        <v>-151.1954414205371</v>
+        <v>-147.8519751007271</v>
       </c>
       <c r="C79">
-        <v>170.8410643530699</v>
+        <v>168.9332976294862</v>
       </c>
       <c r="D79">
-        <v>-30.87197899283197</v>
+        <v>-31.8105003559721</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1500,13 +1500,13 @@
         <v>0.00526666666666666</v>
       </c>
       <c r="B80">
-        <v>-124.3396926400221</v>
+        <v>-127.941962954177</v>
       </c>
       <c r="C80">
-        <v>160.5789626072</v>
+        <v>163.0241521250089</v>
       </c>
       <c r="D80">
-        <v>-56.06414915403195</v>
+        <v>-57.40322007293519</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1514,13 +1514,13 @@
         <v>0.005333333333333326</v>
       </c>
       <c r="B81">
-        <v>-105.6972639817751</v>
+        <v>-106.5341997956298</v>
       </c>
       <c r="C81">
-        <v>169.7081857497956</v>
+        <v>167.4810326709538</v>
       </c>
       <c r="D81">
-        <v>-73.63422088455494</v>
+        <v>-72.56226368099681</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1528,13 +1528,13 @@
         <v>0.005399999999999992</v>
       </c>
       <c r="B82">
-        <v>-94.47309557902086</v>
+        <v>-93.56686053830221</v>
       </c>
       <c r="C82">
-        <v>172.7534412151784</v>
+        <v>171.5173764898789</v>
       </c>
       <c r="D82">
-        <v>-78.60769373049629</v>
+        <v>-78.31914524750287</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1542,13 +1542,13 @@
         <v>0.005466666666666659</v>
       </c>
       <c r="B83">
-        <v>-89.03682436077787</v>
+        <v>-89.40551210439295</v>
       </c>
       <c r="C83">
-        <v>174.3404242970379</v>
+        <v>177.5582518227594</v>
       </c>
       <c r="D83">
-        <v>-83.35362016126771</v>
+        <v>-85.27373551328425</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1556,13 +1556,13 @@
         <v>0.005533333333333325</v>
       </c>
       <c r="B84">
-        <v>-84.07040272761512</v>
+        <v>-85.30004227035489</v>
       </c>
       <c r="C84">
-        <v>175.1049648530783</v>
+        <v>177.6751004933975</v>
       </c>
       <c r="D84">
-        <v>-88.88564057970908</v>
+        <v>-89.41578477971306</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1570,13 +1570,13 @@
         <v>0.005599999999999991</v>
       </c>
       <c r="B85">
-        <v>-77.95347247059708</v>
+        <v>-78.34259847220407</v>
       </c>
       <c r="C85">
-        <v>171.7480806494543</v>
+        <v>171.7065945017664</v>
       </c>
       <c r="D85">
-        <v>-94.15261592720519</v>
+        <v>-93.58157959804201</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1584,13 +1584,13 @@
         <v>0.005666666666666658</v>
       </c>
       <c r="B86">
-        <v>-74.60066549251285</v>
+        <v>-72.78364234358791</v>
       </c>
       <c r="C86">
-        <v>172.4996567648323</v>
+        <v>168.0705918640972</v>
       </c>
       <c r="D86">
-        <v>-107.158876519687</v>
+        <v>-106.4548389156848</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1598,13 +1598,13 @@
         <v>0.005733333333333324</v>
       </c>
       <c r="B87">
-        <v>-55.74298017277623</v>
+        <v>-57.63644387610199</v>
       </c>
       <c r="C87">
-        <v>161.8618569961689</v>
+        <v>163.3528702177582</v>
       </c>
       <c r="D87">
-        <v>-126.089985305736</v>
+        <v>-128.0871270412431</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1612,13 +1612,13 @@
         <v>0.00579999999999999</v>
       </c>
       <c r="B88">
-        <v>-30.68486612489082</v>
+        <v>-32.39043407335107</v>
       </c>
       <c r="C88">
-        <v>168.2259773793075</v>
+        <v>168.6821352835239</v>
       </c>
       <c r="D88">
-        <v>-148.203670730777</v>
+        <v>-147.6742304902839</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1626,13 +1626,13 @@
         <v>0.005866666666666656</v>
       </c>
       <c r="B89">
-        <v>-10.26243039265497</v>
+        <v>-10.99779280205292</v>
       </c>
       <c r="C89">
-        <v>178.1141795519961</v>
+        <v>175.1579476562133</v>
       </c>
       <c r="D89">
-        <v>-163.1284325001439</v>
+        <v>-161.148613225238</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1640,13 +1640,13 @@
         <v>0.005933333333333323</v>
       </c>
       <c r="B90">
-        <v>-2.581086371940267</v>
+        <v>-2.040670180160006</v>
       </c>
       <c r="C90">
-        <v>176.0709135955619</v>
+        <v>176.9086443590809</v>
       </c>
       <c r="D90">
-        <v>-165.0799753226139</v>
+        <v>-168.7509296164042</v>
       </c>
     </row>
   </sheetData>
